--- a/exergo-economic new/bar.xlsx
+++ b/exergo-economic new/bar.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/Trunk/exergo-economic new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793D2844-9FC8-584C-894A-2FA76595EC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F80721-B4DB-DA48-8537-1FDD683127E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="3560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1C494F4E-35AF-6A4F-93F9-52FCBEDCD3E1}"/>
+    <workbookView xWindow="24540" yWindow="4680" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{1C494F4E-35AF-6A4F-93F9-52FCBEDCD3E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="COP" sheetId="4" r:id="rId4"/>
+    <sheet name="UCH" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>COP</t>
   </si>
@@ -61,13 +64,25 @@
   </si>
   <si>
     <t>R-452B</t>
+  </si>
+  <si>
+    <t>UCC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +108,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="LMRoman12-Regular-Identity-H"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -108,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,11 +165,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -169,6 +217,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,9 +551,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -505,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +581,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -533,7 +595,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -547,7 +609,7 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -561,7 +623,7 @@
         <v>0.35060000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17" thickBot="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -581,16 +643,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4550491F-2789-7C44-973C-827CD3570955}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.73</v>
+      </c>
+      <c r="C2" s="6">
+        <v>65.28</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.19059999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45.08</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.2316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="C4" s="6">
+        <v>52.29</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.91</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50.57</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.2278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.91</v>
+      </c>
+      <c r="C6" s="6">
+        <v>56.12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07D4E80-4C28-A94C-B4C5-410B873ACB2F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" thickBot="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -601,78 +762,291 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickBot="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>2.73</v>
-      </c>
-      <c r="C2" s="6">
-        <v>65.28</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.19059999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="C2" s="7">
+        <v>42.15</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.64990000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>5.16</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45.08</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.2316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
+        <v>3.4265400000000001</v>
+      </c>
+      <c r="C3" s="8">
+        <v>41.611229999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.679199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>3.99</v>
-      </c>
-      <c r="C4" s="6">
-        <v>52.29</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.22570000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>3.056</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42.22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
-        <v>4.91</v>
-      </c>
-      <c r="C5" s="6">
-        <v>50.57</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.2278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>3.6240190000000001</v>
+      </c>
+      <c r="C5" s="8">
+        <v>32.122480000000003</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.66152999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>3.91</v>
-      </c>
-      <c r="C6" s="6">
-        <v>56.12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.21429999999999999</v>
-      </c>
+      <c r="B6" s="8">
+        <v>3.1330529999999999</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44.935749999999999</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.67528900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD6E66-2B86-2847-85E3-320C6092DCB9}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2.7330000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4.0730000000000004</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3.9990000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4.9720000000000004</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.649</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.9109999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3.9129999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D7700E-3AAD-2449-BE44-35CDAC0A731D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.188</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.221</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.221</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
